--- a/msff/xls/SgpMonthlyExp.xlsx
+++ b/msff/xls/SgpMonthlyExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7963A29C-491D-4581-A870-8685244FA52B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED9040F-FC9A-4BBE-A736-0ED571663DE1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="0" windowWidth="17970" windowHeight="9120" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="17970" windowHeight="9120" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>天</t>
   </si>
@@ -355,9 +355,6 @@
 年费</t>
   </si>
   <si>
-    <t>5750 ex bx</t>
-  </si>
-  <si>
     <t>杂</t>
   </si>
   <si>
@@ -367,13 +364,13 @@
     <t>bx</t>
   </si>
   <si>
-    <t>Tokyo flight</t>
-  </si>
-  <si>
     <t>Tokyo hotel</t>
   </si>
   <si>
     <t>bxp</t>
+  </si>
+  <si>
+    <t>Tokyo flight, lastWill</t>
   </si>
 </sst>
 </file>
@@ -381,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyymmmdd"/>
-    <numFmt numFmtId="167" formatCode="\~yyyy\.mm\.dd"/>
+    <numFmt numFmtId="164" formatCode="yyyymmmdd"/>
+    <numFmt numFmtId="165" formatCode="\~yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +418,11 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF444444"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Inherit"/>
     </font>
   </fonts>
@@ -465,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -484,32 +486,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,23 +832,23 @@
   <dimension ref="B1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="18" customWidth="1"/>
     <col min="7" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="6.75" customHeight="1">
       <c r="B1" s="1"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -855,10 +860,10 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -874,7 +879,7 @@
         <v>92</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>2</v>
@@ -882,8 +887,8 @@
     </row>
     <row r="3" spans="2:10" ht="15.75">
       <c r="B3" s="7"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -893,8 +898,8 @@
     </row>
     <row r="4" spans="2:10" ht="15.75">
       <c r="B4" s="7"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -904,14 +909,16 @@
     </row>
     <row r="5" spans="2:10" ht="15.75">
       <c r="B5" s="7"/>
-      <c r="C5" s="15">
+      <c r="C5" s="9">
         <v>45503</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="15">
         <v>4710</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>2020</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -919,10 +926,10 @@
     </row>
     <row r="6" spans="2:10" ht="15.75">
       <c r="B6" s="7"/>
-      <c r="C6" s="15">
+      <c r="C6" s="9">
         <v>45470</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="14">
         <v>7740</v>
       </c>
       <c r="E6" s="6"/>
@@ -933,34 +940,36 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75">
       <c r="B7" s="7"/>
-      <c r="C7" s="15">
+      <c r="C7" s="9">
         <v>45442</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="16">
         <v>9140</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7">
-        <v>3720</v>
-      </c>
-      <c r="H7" s="7"/>
+        <v>3770</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1526</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75">
       <c r="B8" s="7"/>
-      <c r="C8" s="15">
+      <c r="C8" s="9">
         <v>45411</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="14">
         <v>5090</v>
       </c>
       <c r="E8" s="6"/>
@@ -972,10 +981,10 @@
     </row>
     <row r="9" spans="2:10" ht="15.75">
       <c r="B9" s="7"/>
-      <c r="C9" s="15">
+      <c r="C9" s="9">
         <v>45378</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="15">
         <v>4630</v>
       </c>
       <c r="E9" s="6"/>
@@ -987,10 +996,10 @@
     </row>
     <row r="10" spans="2:10" ht="15.75">
       <c r="B10" s="7"/>
-      <c r="C10" s="15">
+      <c r="C10" s="9">
         <v>45350</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="16">
         <v>8230</v>
       </c>
       <c r="E10" s="6"/>
@@ -1001,15 +1010,15 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75">
       <c r="B11" s="7"/>
-      <c r="C11" s="15">
+      <c r="C11" s="9">
         <v>45321</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="14">
         <v>5760</v>
       </c>
       <c r="E11" s="6"/>
@@ -1021,10 +1030,10 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="3"/>
-      <c r="C12" s="15">
+      <c r="C12" s="9">
         <v>45288</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="14">
         <v>7190</v>
       </c>
       <c r="E12" s="3"/>
@@ -1035,17 +1044,17 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="14">
         <v>7200</v>
       </c>
       <c r="E13" s="3"/>
@@ -1063,10 +1072,10 @@
       <c r="B14" s="3">
         <v>30</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="3">
@@ -1088,10 +1097,10 @@
       <c r="B15" s="3">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="14">
         <v>5780</v>
       </c>
       <c r="E15" s="3">
@@ -1115,10 +1124,10 @@
       <c r="B16" s="3">
         <v>31</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="17">
         <v>3000</v>
       </c>
       <c r="E16" s="3">
@@ -1140,10 +1149,10 @@
       <c r="B17" s="3">
         <v>44</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="14">
         <v>6490</v>
       </c>
       <c r="E17" s="3">
@@ -1167,10 +1176,10 @@
       <c r="B18" s="3">
         <v>33</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="14">
         <v>4220</v>
       </c>
       <c r="E18" s="3">
@@ -1192,10 +1201,10 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="16">
         <v>7530</v>
       </c>
       <c r="E19" s="3">
@@ -1217,10 +1226,10 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3"/>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="14">
         <v>5320</v>
       </c>
       <c r="E20" s="3">
@@ -1242,10 +1251,10 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3"/>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="14">
         <v>5100</v>
       </c>
       <c r="E21" s="3">
@@ -1265,10 +1274,10 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3"/>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="14">
         <v>5410</v>
       </c>
       <c r="E22" s="3">
@@ -1290,10 +1299,10 @@
       <c r="B23" s="3">
         <v>32</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="14">
         <v>5630</v>
       </c>
       <c r="E23" s="3"/>
@@ -1311,11 +1320,11 @@
       <c r="B24" s="3">
         <v>30</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>93</v>
+      <c r="D24" s="16">
+        <v>9220</v>
       </c>
       <c r="E24" s="3">
         <v>1250</v>
@@ -1338,10 +1347,10 @@
       <c r="B25" s="3">
         <v>29</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="3"/>
@@ -1355,25 +1364,25 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="3">
         <v>32</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="3"/>
@@ -1389,10 +1398,10 @@
       <c r="B28" s="3">
         <v>31</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="14">
         <v>3990</v>
       </c>
       <c r="E28" s="3"/>
@@ -1408,10 +1417,10 @@
       <c r="B29" s="3">
         <v>31</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="17">
         <v>2250</v>
       </c>
       <c r="E29" s="3"/>
@@ -1425,10 +1434,10 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="17">
         <v>1980</v>
       </c>
       <c r="E30" s="3"/>
@@ -1442,10 +1451,10 @@
       <c r="B31" s="3">
         <v>27</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="16">
         <v>6840</v>
       </c>
       <c r="E31" s="3"/>
@@ -1463,10 +1472,10 @@
       <c r="B32" s="3">
         <v>33</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="14">
         <v>2090</v>
       </c>
       <c r="E32" s="3"/>
@@ -1480,10 +1489,10 @@
       <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="14">
         <v>4720</v>
       </c>
       <c r="E33" s="3"/>
@@ -1499,10 +1508,10 @@
       <c r="B34" s="3">
         <v>30</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="16">
         <v>5850</v>
       </c>
       <c r="E34" s="3"/>
@@ -1518,10 +1527,10 @@
       <c r="B35" s="3">
         <v>32</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="14">
         <v>2750</v>
       </c>
       <c r="E35" s="3"/>
@@ -1535,10 +1544,10 @@
       <c r="B36" s="3">
         <v>28</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="16">
         <v>5620</v>
       </c>
       <c r="E36" s="3"/>
@@ -1554,10 +1563,10 @@
       <c r="B37" s="3">
         <v>28</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="14">
         <v>4760</v>
       </c>
       <c r="E37" s="3"/>
@@ -1573,10 +1582,10 @@
       <c r="B38" s="3">
         <v>31</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="14">
         <v>3300</v>
       </c>
       <c r="E38" s="3"/>
@@ -1592,10 +1601,10 @@
       <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="14">
         <v>3500</v>
       </c>
       <c r="E39" s="3">
@@ -1621,10 +1630,10 @@
       <c r="B40" s="3">
         <v>32</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="14">
         <v>3574</v>
       </c>
       <c r="E40" s="3">
@@ -1650,10 +1659,10 @@
       <c r="B41" s="3">
         <v>29</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="14">
         <v>5040</v>
       </c>
       <c r="E41" s="5">
@@ -1679,10 +1688,10 @@
       <c r="B42" s="3">
         <v>33</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="14">
         <v>3430</v>
       </c>
       <c r="E42" s="3">
@@ -1708,10 +1717,10 @@
       <c r="B43" s="3">
         <v>30</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="14">
         <v>2794</v>
       </c>
       <c r="E43" s="3">
@@ -1737,10 +1746,10 @@
       <c r="B44" s="3">
         <v>32</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="14">
         <v>2984</v>
       </c>
       <c r="E44" s="3">
@@ -1766,10 +1775,10 @@
       <c r="B45" s="3">
         <v>30</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="14">
         <v>12719</v>
       </c>
       <c r="E45" s="3">
@@ -1795,10 +1804,10 @@
       <c r="B46" s="3">
         <v>31</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="14">
         <v>4726</v>
       </c>
       <c r="E46" s="5">
@@ -1824,10 +1833,10 @@
       <c r="B47" s="3">
         <v>61</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="14">
         <v>6875</v>
       </c>
       <c r="E47" s="3"/>
@@ -1843,10 +1852,10 @@
       <c r="B48" s="3">
         <v>34</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="14">
         <v>4604</v>
       </c>
       <c r="E48" s="3">
@@ -1872,10 +1881,10 @@
       <c r="B49" s="3">
         <v>31</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="14">
         <v>3172</v>
       </c>
       <c r="E49" s="3"/>
@@ -1889,10 +1898,10 @@
       <c r="B50" s="3">
         <v>31</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="14">
         <v>2095</v>
       </c>
       <c r="E50" s="3"/>
@@ -1906,10 +1915,10 @@
       <c r="B51" s="3">
         <v>30</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="14">
         <v>3338</v>
       </c>
       <c r="E51" s="3">
@@ -1935,10 +1944,10 @@
       <c r="B52" s="3">
         <v>31</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="14">
         <v>2896</v>
       </c>
       <c r="E52" s="3">
@@ -1964,10 +1973,10 @@
       <c r="B53" s="3">
         <v>30</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="14">
         <v>2767</v>
       </c>
       <c r="E53" s="3">
@@ -1991,10 +2000,10 @@
       <c r="B54" s="3">
         <v>31</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="14">
         <v>2640</v>
       </c>
       <c r="E54" s="3">
@@ -2020,10 +2029,10 @@
       <c r="B55" s="3">
         <v>30</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="14">
         <v>1990</v>
       </c>
       <c r="E55" s="3">
@@ -2047,10 +2056,10 @@
       <c r="B56" s="3">
         <v>30</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="14">
         <v>3850</v>
       </c>
       <c r="E56" s="3">
@@ -2076,10 +2085,10 @@
       <c r="B57" s="3">
         <v>23</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="14">
         <v>2200</v>
       </c>
       <c r="E57" s="3">
@@ -2105,10 +2114,10 @@
       <c r="B58" s="3">
         <v>42</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="14">
         <v>7450</v>
       </c>
       <c r="E58" s="3">
@@ -2134,10 +2143,10 @@
       <c r="B59" s="3">
         <v>27</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="14">
         <v>1550</v>
       </c>
       <c r="E59" s="3">
@@ -2163,10 +2172,10 @@
       <c r="B60" s="3">
         <v>43</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="14">
         <v>4650</v>
       </c>
       <c r="E60" s="3">
@@ -2190,10 +2199,10 @@
       <c r="B61" s="3">
         <v>27</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="14">
         <v>1290</v>
       </c>
       <c r="E61" s="3">

--- a/msff/xls/SgpMonthlyExp.xlsx
+++ b/msff/xls/SgpMonthlyExp.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED9040F-FC9A-4BBE-A736-0ED571663DE1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4441F0-B819-4734-8EB1-1F26501160E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="17970" windowHeight="9120" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
+    <workbookView xWindow="12945" yWindow="285" windowWidth="17310" windowHeight="21150" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
   <si>
     <t>天</t>
   </si>
@@ -99,9 +108,6 @@
     <t>~11月15</t>
   </si>
   <si>
-    <t>3490 ex..</t>
-  </si>
-  <si>
     <t>excluding reno</t>
   </si>
   <si>
@@ -109,9 +115,6 @@
   </si>
   <si>
     <t>~10月17</t>
-  </si>
-  <si>
-    <t>$4270 ex..</t>
   </si>
   <si>
     <t>excluding commission, including SBH$14xx</t>
@@ -364,13 +367,19 @@
     <t>bx</t>
   </si>
   <si>
-    <t>Tokyo hotel</t>
-  </si>
-  <si>
     <t>bxp</t>
   </si>
   <si>
     <t>Tokyo flight, lastWill</t>
+  </si>
+  <si>
+    <t>~2024.08.29</t>
+  </si>
+  <si>
+    <t>1Y avg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ex..</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -515,6 +524,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB55115-5E44-4E3B-91CF-2ECA795122E9}">
-  <dimension ref="B1:J61"/>
+  <dimension ref="B1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -840,1389 +861,1544 @@
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="18" customWidth="1"/>
-    <col min="7" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6.75" customHeight="1">
+    <row r="1" spans="2:11" ht="6.75" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="2:10" ht="31.5">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="2:11" ht="31.5">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75">
+    <row r="3" spans="2:11" ht="15.75">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75">
       <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75">
       <c r="B5" s="7"/>
       <c r="C5" s="9">
         <v>45503</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="21">
+        <f>AVERAGE(E5:E16)</f>
+        <v>6079.454545454545</v>
+      </c>
+      <c r="E5" s="15">
         <v>4710</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7">
+      <c r="F5" s="6"/>
+      <c r="G5" s="7">
         <v>2020</v>
       </c>
-      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75">
       <c r="B6" s="7"/>
       <c r="C6" s="9">
         <v>45470</v>
       </c>
-      <c r="D6" s="14">
-        <v>7740</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
-        <v>2260</v>
-      </c>
+      <c r="D6" s="21">
+        <f>AVERAGE(E6:E17)</f>
+        <v>6241.272727272727</v>
+      </c>
+      <c r="E6" s="14">
+        <v>6144</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75">
+      <c r="I6" s="7">
+        <v>1476</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75">
       <c r="B7" s="7"/>
       <c r="C7" s="9">
         <v>45442</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="21">
+        <f t="shared" ref="D6:D22" si="0">AVERAGE(E7:E18)</f>
+        <v>6066.363636363636</v>
+      </c>
+      <c r="E7" s="16">
         <v>9140</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
         <v>3770</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>1526</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75">
       <c r="B8" s="7"/>
       <c r="C8" s="9">
         <v>45411</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="21">
+        <f>AVERAGE(E8:E19)</f>
+        <v>5920</v>
+      </c>
+      <c r="E8" s="14">
         <v>5090</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.75">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75">
       <c r="B9" s="7"/>
       <c r="C9" s="9">
         <v>45378</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="21">
+        <f>AVERAGE(E9:E20)</f>
+        <v>5940.909090909091</v>
+      </c>
+      <c r="E9" s="15">
         <v>4630</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.75">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75">
       <c r="B10" s="7"/>
       <c r="C10" s="9">
         <v>45350</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="21">
+        <f t="shared" si="0"/>
+        <v>5983.636363636364</v>
+      </c>
+      <c r="E10" s="16">
         <v>8230</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
         <v>3220</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.75">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75">
       <c r="B11" s="7"/>
       <c r="C11" s="9">
         <v>45321</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="21">
+        <f t="shared" si="0"/>
+        <v>5727.272727272727</v>
+      </c>
+      <c r="E11" s="14">
         <v>5760</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="3"/>
       <c r="C12" s="9">
         <v>45288</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="21">
+        <f t="shared" si="0"/>
+        <v>5715.454545454545</v>
+      </c>
+      <c r="E12" s="14">
         <v>7190</v>
       </c>
-      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
         <v>3620</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="3">
         <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+      <c r="E13" s="14">
         <v>7200</v>
       </c>
-      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <v>2538</v>
       </c>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:11">
       <c r="B14" s="3">
         <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="21">
+        <f>AVERAGE(E14:E25)</f>
+        <v>5562.727272727273</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1010</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1970</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>730</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="3">
         <v>30</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="21">
+        <f>AVERAGE(E15:E27)</f>
+        <v>5455</v>
+      </c>
+      <c r="E15" s="14">
         <v>5780</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>710</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1650</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>590</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:11">
       <c r="B16" s="3">
         <v>31</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="21">
+        <f t="shared" ref="D16:D27" si="1">AVERAGE(E16:E28)</f>
+        <v>5305.833333333333</v>
+      </c>
+      <c r="E16" s="17">
         <v>3000</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>1040</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>10</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>460</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="3">
         <v>44</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="21">
+        <f t="shared" si="1"/>
+        <v>5243.333333333333</v>
+      </c>
+      <c r="E17" s="14">
         <v>6490</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1010</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2910</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>680</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:11">
       <c r="B18" s="3">
         <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="21">
+        <f t="shared" si="1"/>
+        <v>4867.5</v>
+      </c>
+      <c r="E18" s="14">
         <v>4220</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1270</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>180</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1476</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:11">
       <c r="B19" s="3"/>
       <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="21">
+        <f t="shared" si="1"/>
+        <v>5085.833333333333</v>
+      </c>
+      <c r="E19" s="16">
         <v>7530</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>1710</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>670</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>3204</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>176</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:11">
       <c r="B20" s="3"/>
       <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="21">
+        <f t="shared" si="1"/>
+        <v>4632.5</v>
+      </c>
+      <c r="E20" s="14">
         <v>5320</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>410</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2680</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>354</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>328</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:11">
       <c r="B21" s="3"/>
       <c r="C21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="21">
+        <f t="shared" si="1"/>
+        <v>4582.5</v>
+      </c>
+      <c r="E21" s="14">
         <v>5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>760</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>355</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1354</v>
       </c>
-      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="3"/>
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="21">
+        <f t="shared" si="1"/>
+        <v>4645</v>
+      </c>
+      <c r="E22" s="14">
         <v>5410</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1470</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>170</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>270</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2514</v>
       </c>
-      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="3">
         <v>32</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="21">
+        <f t="shared" si="1"/>
+        <v>4423.333333333333</v>
+      </c>
+      <c r="E23" s="14">
         <v>5630</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:11">
       <c r="B24" s="3">
         <v>30</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="21">
+        <f t="shared" si="1"/>
+        <v>4422.5</v>
+      </c>
+      <c r="E24" s="16">
         <v>9220</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1250</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2140</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3468</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:11">
       <c r="B25" s="3">
         <v>29</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="21">
+        <f>AVERAGE(E25:E37)</f>
+        <v>4050.8333333333335</v>
+      </c>
+      <c r="E25" s="14">
+        <v>3490</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="D26" s="21"/>
+      <c r="E26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="3">
         <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D27" s="21">
+        <f>AVERAGE(E27:E38)</f>
+        <v>4035</v>
+      </c>
+      <c r="E27" s="14">
+        <v>4270</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="3">
         <v>31</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="14">
+        <v>28</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" ref="D28:D37" si="2">AVERAGE(E28:E39)</f>
+        <v>3970.8333333333335</v>
+      </c>
+      <c r="E28" s="14">
         <v>3990</v>
       </c>
-      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:11">
       <c r="B29" s="3">
         <v>31</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="17">
+        <v>29</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="2"/>
+        <v>3936.1666666666665</v>
+      </c>
+      <c r="E29" s="17">
         <v>2250</v>
       </c>
-      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="3">
         <v>29</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="17">
+        <v>30</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="2"/>
+        <v>4168.666666666667</v>
+      </c>
+      <c r="E30" s="17">
         <v>1980</v>
       </c>
-      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="3">
         <v>27</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="16">
+        <v>31</v>
+      </c>
+      <c r="D31" s="21">
+        <f t="shared" si="2"/>
+        <v>4289.5</v>
+      </c>
+      <c r="E31" s="16">
         <v>6840</v>
       </c>
-      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
         <v>1476</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="3">
         <v>33</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="14">
+        <v>33</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="2"/>
+        <v>3952.3333333333335</v>
+      </c>
+      <c r="E32" s="14">
         <v>2090</v>
       </c>
-      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="3">
         <v>30</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="14">
+        <v>34</v>
+      </c>
+      <c r="D33" s="21">
+        <f>AVERAGE(E33:E44)</f>
+        <v>4026.8333333333335</v>
+      </c>
+      <c r="E33" s="14">
         <v>4720</v>
       </c>
-      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:11">
       <c r="B34" s="3">
         <v>30</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="16">
+        <v>35</v>
+      </c>
+      <c r="D34" s="21">
+        <f>AVERAGE(E34:E44)</f>
+        <v>3963.818181818182</v>
+      </c>
+      <c r="E34" s="16">
         <v>5850</v>
       </c>
-      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
         <v>2454</v>
       </c>
-      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="3">
         <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="14">
+        <v>36</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="14">
         <v>2750</v>
       </c>
-      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="3">
         <v>28</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="16">
+        <v>37</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="16">
         <v>5620</v>
       </c>
-      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
         <v>3780</v>
       </c>
-      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="3">
         <v>28</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="14">
+        <v>38</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="14">
         <v>4760</v>
       </c>
-      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:11">
       <c r="B38" s="3">
         <v>31</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="14">
+        <v>39</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="14">
         <v>3300</v>
       </c>
-      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
       <c r="B39" s="3">
         <v>34</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="14">
+        <v>41</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="14">
         <v>3500</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>400</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>1754</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <v>117</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>6</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="3">
         <v>1230</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="K39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
       <c r="B40" s="3">
         <v>32</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="14">
+        <v>43</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="14">
         <v>3574</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>667</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>481</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H40" s="3">
         <v>60</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <v>0</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>2366</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="K40" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41" s="3">
         <v>29</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="14">
+        <v>45</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="14">
         <v>5040</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>368</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1743</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
         <v>2929</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="K41" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42" s="3">
         <v>33</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="14">
+        <v>47</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="14">
         <v>3430</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>437</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>28</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>152</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1476</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1337</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="K42" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
       <c r="B43" s="3">
         <v>30</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="14">
+        <v>49</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="14">
         <v>2794</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>557</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>2227</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="K43" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
       <c r="B44" s="3">
         <v>32</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="14">
+        <v>51</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="14">
         <v>2984</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>416</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>45</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>2523</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="K44" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
       <c r="B45" s="3">
         <v>30</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="14">
+        <v>53</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="14">
         <v>12719</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10920</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>361</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>382</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1056</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="K45" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
       <c r="B46" s="3">
         <v>31</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="14">
+        <v>55</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="14">
         <v>4726</v>
       </c>
-      <c r="E46" s="5">
+      <c r="F46" s="5">
         <v>512</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>189</v>
       </c>
-      <c r="G46" s="5">
+      <c r="H46" s="5">
         <v>77</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2874</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1014</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="K46" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
       <c r="B47" s="3">
         <v>61</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="14">
+        <v>57</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="14">
         <v>6875</v>
       </c>
-      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
       <c r="B48" s="3">
         <v>34</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="14">
+        <v>59</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="14">
         <v>4604</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>428</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1316</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>661</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>288</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>1910</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="K48" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
       <c r="B49" s="3">
         <v>31</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="14">
+        <v>61</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="14">
         <v>3172</v>
       </c>
-      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="2:11">
       <c r="B50" s="3">
         <v>31</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="14">
+        <v>62</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="14">
         <v>2095</v>
       </c>
-      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="2:11">
       <c r="B51" s="3">
         <v>30</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="14">
+        <v>63</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="14">
         <v>3338</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>567</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>1488</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <v>97</v>
       </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <v>1186</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="K51" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
       <c r="B52" s="3">
         <v>31</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="14">
+        <v>2896</v>
+      </c>
+      <c r="F52" s="3">
+        <v>454</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" s="3">
+        <v>296</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1931</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="14">
-        <v>2896</v>
-      </c>
-      <c r="E52" s="3">
-        <v>454</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="3">
-        <v>296</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1931</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
+    </row>
+    <row r="53" spans="2:11">
       <c r="B53" s="3">
         <v>30</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="14">
+        <v>2767</v>
+      </c>
+      <c r="F53" s="3">
+        <v>325</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="3">
+        <v>45</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1476</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="14">
-        <v>2767</v>
-      </c>
-      <c r="E53" s="3">
-        <v>325</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="3">
-        <v>45</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1476</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="2:11">
       <c r="B54" s="3">
         <v>31</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="14">
+        <v>2640</v>
+      </c>
+      <c r="F54" s="3">
+        <v>410</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="3">
+        <v>20</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1760</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="14">
-        <v>2640</v>
-      </c>
-      <c r="E54" s="3">
-        <v>410</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="3">
-        <v>20</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>1760</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
+    </row>
+    <row r="55" spans="2:11">
       <c r="B55" s="3">
         <v>30</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="14">
+        <v>1990</v>
+      </c>
+      <c r="F55" s="3">
+        <v>220</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="3">
+        <v>60</v>
+      </c>
+      <c r="I55" s="3">
+        <v>460</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="14">
-        <v>1990</v>
-      </c>
-      <c r="E55" s="3">
-        <v>220</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="3">
-        <v>60</v>
-      </c>
-      <c r="H55" s="3">
-        <v>460</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="2:11">
       <c r="B56" s="3">
         <v>30</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="14">
+        <v>77</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="14">
         <v>3850</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>340</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>1640</v>
       </c>
-      <c r="G56" s="3">
+      <c r="H56" s="3">
         <v>250</v>
       </c>
-      <c r="H56" s="3">
+      <c r="I56" s="3">
         <v>420</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J56" s="3">
         <v>1200</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="K56" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
       <c r="B57" s="3">
         <v>23</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="14">
+        <v>78</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="14">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>470</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>520</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1150</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="K57" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
       <c r="B58" s="3">
         <v>42</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="14">
+        <v>80</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="14">
         <v>7450</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>530</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>460</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1110</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2880</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2470</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="K58" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
       <c r="B59" s="3">
         <v>27</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="14">
+        <v>82</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="14">
         <v>1550</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>520</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1030</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="K59" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
       <c r="B60" s="3">
         <v>43</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="14">
+        <v>84</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="14">
         <v>4650</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>710</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>910</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>470</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>290</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
       <c r="B61" s="3">
         <v>27</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="14">
+        <v>86</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="14">
         <v>1290</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>290</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="2"/>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E26:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/msff/xls/SgpMonthlyExp.xlsx
+++ b/msff/xls/SgpMonthlyExp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E258416-0DD1-46D7-BEF2-DFAB8D779394}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE694016-1AED-4E3E-A1F7-9572274514CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12435" yWindow="2640" windowWidth="16185" windowHeight="11835" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
+    <workbookView xWindow="2340" yWindow="450" windowWidth="17310" windowHeight="21150" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -528,6 +537,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,12 +553,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,7 +870,7 @@
   <dimension ref="B1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -884,12 +893,12 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="9"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -928,7 +937,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
@@ -936,7 +945,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="10">
-        <v>6059</v>
+        <v>5902</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>74</v>
@@ -944,7 +953,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
@@ -956,7 +965,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -967,14 +976,32 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="10">
+        <f>DATEDIF(C8,C7, "D")</f>
+        <v>34</v>
+      </c>
+      <c r="C7" s="15">
+        <v>45598</v>
+      </c>
+      <c r="D7" s="12">
+        <f>AVERAGE(E7:E18)</f>
+        <v>5901.666666666667</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2840</v>
+      </c>
+      <c r="F7" s="14">
+        <v>570</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1080</v>
+      </c>
+      <c r="H7" s="14">
+        <v>320</v>
+      </c>
+      <c r="I7" s="14">
+        <v>17</v>
+      </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
@@ -1048,7 +1075,7 @@
         <f>AVERAGE(E10:E21)</f>
         <v>5966.666666666667</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="19">
         <v>4710</v>
       </c>
       <c r="F10" s="16"/>
@@ -1112,13 +1139,13 @@
       <c r="H12" s="14">
         <v>3770</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="26">
         <v>1526</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="25">
         <v>1400</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2568,93 +2595,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2665,5 +2692,6 @@
     <mergeCell ref="A6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/msff/xls/SgpMonthlyExp.xlsx
+++ b/msff/xls/SgpMonthlyExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE694016-1AED-4E3E-A1F7-9572274514CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CE0E11-D61B-48F5-8B78-7A45C175315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="450" windowWidth="17310" windowHeight="21150" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
+    <workbookView xWindow="780" yWindow="450" windowWidth="17310" windowHeight="21150" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>天</t>
   </si>
@@ -302,9 +302,6 @@
     <t>I will aim to control/contain the rolling average to under 6k/M</t>
   </si>
   <si>
-    <t>Tokyo hotel</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Tokyo flight, </t>
     </r>
@@ -319,7 +316,7 @@
     </r>
   </si>
   <si>
-    <t>&lt;&lt;snapshot of latest 1Y-avg as a check-sum</t>
+    <t>Tokyo hotel $2270</t>
   </si>
 </sst>
 </file>
@@ -869,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB55115-5E44-4E3B-91CF-2ECA795122E9}">
   <dimension ref="B1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,7 +875,7 @@
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="5"/>
@@ -944,12 +941,8 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="10">
-        <v>5902</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="10"/>
@@ -984,8 +977,8 @@
         <v>45598</v>
       </c>
       <c r="D7" s="12">
-        <f>AVERAGE(E7:E18)</f>
-        <v>5901.666666666667</v>
+        <f>MROUND(AVERAGE(E7:E18),100)</f>
+        <v>5900</v>
       </c>
       <c r="E7" s="17">
         <v>2840</v>
@@ -1014,8 +1007,8 @@
         <v>45564</v>
       </c>
       <c r="D8" s="12">
-        <f>AVERAGE(E8:E19)</f>
-        <v>6059.166666666667</v>
+        <f>MROUND(AVERAGE(E8:E19),100)</f>
+        <v>6100</v>
       </c>
       <c r="E8" s="13">
         <v>6460</v>
@@ -1034,7 +1027,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.75">
@@ -1046,8 +1039,8 @@
         <v>45533</v>
       </c>
       <c r="D9" s="12">
-        <f>AVERAGE(E9:E20)</f>
-        <v>6002.5</v>
+        <f>MROUND(AVERAGE(E9:E20),100)</f>
+        <v>6000</v>
       </c>
       <c r="E9" s="17">
         <v>3430</v>
@@ -1072,8 +1065,8 @@
         <v>45503</v>
       </c>
       <c r="D10" s="12">
-        <f>AVERAGE(E10:E21)</f>
-        <v>5966.666666666667</v>
+        <f>MROUND(AVERAGE(E10:E21),100)</f>
+        <v>6000</v>
       </c>
       <c r="E10" s="19">
         <v>4710</v>
@@ -1098,8 +1091,8 @@
         <v>45470</v>
       </c>
       <c r="D11" s="12">
-        <f>AVERAGE(E11:E22)</f>
-        <v>6115</v>
+        <f>MROUND(AVERAGE(E11:E22),100)</f>
+        <v>6100</v>
       </c>
       <c r="E11" s="13">
         <v>6140</v>
@@ -1124,8 +1117,8 @@
         <v>45442</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" ref="D12:D18" si="1">AVERAGE(E12:E23)</f>
-        <v>5955</v>
+        <f>MROUND(AVERAGE(E12:E23),100)</f>
+        <v>6000</v>
       </c>
       <c r="E12" s="18">
         <v>9140</v>
@@ -1146,7 +1139,7 @@
         <v>1400</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75">
@@ -1158,8 +1151,8 @@
         <v>45411</v>
       </c>
       <c r="D13" s="12">
-        <f>AVERAGE(E13:E24)</f>
-        <v>5820.833333333333</v>
+        <f>MROUND(AVERAGE(E13:E24),100)</f>
+        <v>5800</v>
       </c>
       <c r="E13" s="13">
         <v>5090</v>
@@ -1180,8 +1173,8 @@
         <v>45378</v>
       </c>
       <c r="D14" s="12">
-        <f>AVERAGE(E14:E25)</f>
-        <v>5840</v>
+        <f>MROUND(AVERAGE(E14:E25),100)</f>
+        <v>5800</v>
       </c>
       <c r="E14" s="19">
         <v>4630</v>
@@ -1202,8 +1195,8 @@
         <v>45350</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="1"/>
-        <v>5879.166666666667</v>
+        <f>MROUND(AVERAGE(E15:E26),100)</f>
+        <v>5900</v>
       </c>
       <c r="E15" s="18">
         <v>8230</v>
@@ -1226,8 +1219,8 @@
         <v>45321</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="1"/>
-        <v>5644.166666666667</v>
+        <f>MROUND(AVERAGE(E16:E27),100)</f>
+        <v>5600</v>
       </c>
       <c r="E16" s="13">
         <v>5760</v>
@@ -1248,8 +1241,8 @@
         <v>45288</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="1"/>
-        <v>5633.333333333333</v>
+        <f>MROUND(AVERAGE(E17:E28),100)</f>
+        <v>5600</v>
       </c>
       <c r="E17" s="13">
         <v>7190</v>
@@ -1272,8 +1265,8 @@
         <v>45259</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="1"/>
-        <v>5802.5</v>
+        <f>MROUND(AVERAGE(E18:E29),100)</f>
+        <v>5800</v>
       </c>
       <c r="E18" s="13">
         <v>7200</v>
@@ -1298,8 +1291,8 @@
         <v>45229</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" ref="D19:D31" si="2">AVERAGE(E19:E30)</f>
-        <v>5493.333333333333</v>
+        <f>MROUND(AVERAGE(E19:E30),100)</f>
+        <v>5500</v>
       </c>
       <c r="E19" s="13">
         <v>4730</v>
@@ -1328,7 +1321,7 @@
         <v>45199</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D19:D31" si="1">AVERAGE(E20:E31)</f>
         <v>5455</v>
       </c>
       <c r="E20" s="13">
@@ -1360,7 +1353,7 @@
         <v>45169</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5305.833333333333</v>
       </c>
       <c r="E21" s="20">
@@ -1390,7 +1383,7 @@
         <v>45138</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5243.333333333333</v>
       </c>
       <c r="E22" s="13">
@@ -1422,7 +1415,7 @@
         <v>45094</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4867.5</v>
       </c>
       <c r="E23" s="13">
@@ -1454,7 +1447,7 @@
         <v>45061</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5085.833333333333</v>
       </c>
       <c r="E24" s="18">
@@ -1486,7 +1479,7 @@
         <v>45031</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4632.5</v>
       </c>
       <c r="E25" s="13">
@@ -1518,7 +1511,7 @@
         <v>45000</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4582.5</v>
       </c>
       <c r="E26" s="13">
@@ -1548,7 +1541,7 @@
         <v>44972</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4645</v>
       </c>
       <c r="E27" s="13">
@@ -1578,7 +1571,7 @@
         <v>44942</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4423.333333333333</v>
       </c>
       <c r="E28" s="13">
@@ -1604,7 +1597,7 @@
         <v>44910</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4422.5</v>
       </c>
       <c r="E29" s="18">
@@ -1636,7 +1629,7 @@
         <v>44880</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4050.8333333333335</v>
       </c>
       <c r="E30" s="13">
@@ -1662,7 +1655,7 @@
         <v>44851</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4035</v>
       </c>
       <c r="E31" s="13">
@@ -1688,7 +1681,7 @@
         <v>44819</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" ref="D32:D36" si="3">AVERAGE(E32:E43)</f>
+        <f t="shared" ref="D32:D36" si="2">AVERAGE(E32:E43)</f>
         <v>3970.8333333333335</v>
       </c>
       <c r="E32" s="13">
@@ -1712,7 +1705,7 @@
         <v>44788</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3935.8333333333335</v>
       </c>
       <c r="E33" s="20">
@@ -1756,7 +1749,7 @@
         <v>44728</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4289.166666666667</v>
       </c>
       <c r="E35" s="18">
@@ -1782,8 +1775,8 @@
         <v>44701</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="3"/>
-        <v>3952</v>
+        <f t="shared" si="2"/>
+        <v>3951.6666666666665</v>
       </c>
       <c r="E36" s="13">
         <v>2090</v>
@@ -1805,7 +1798,7 @@
       </c>
       <c r="D37" s="12">
         <f>AVERAGE(E37:E48)</f>
-        <v>4026.5</v>
+        <v>4026.1666666666665</v>
       </c>
       <c r="E37" s="13">
         <v>4720</v>
@@ -1829,7 +1822,7 @@
       </c>
       <c r="D38" s="12">
         <f>AVERAGE(E38:E49)</f>
-        <v>4693.083333333333</v>
+        <v>4692.75</v>
       </c>
       <c r="E38" s="18">
         <v>5850</v>
@@ -1853,7 +1846,7 @@
       </c>
       <c r="D39" s="12">
         <f>AVERAGE(E39:E50)</f>
-        <v>4599.416666666667</v>
+        <v>4599.083333333333</v>
       </c>
       <c r="E39" s="13">
         <v>2750</v>
@@ -2055,7 +2048,7 @@
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="13">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="F47" s="14">
         <v>557</v>

--- a/msff/xls/SgpMonthlyExp.xlsx
+++ b/msff/xls/SgpMonthlyExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CE0E11-D61B-48F5-8B78-7A45C175315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5A7A4-DF73-4AF4-84AB-A6CD844A9C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="450" windowWidth="17310" windowHeight="21150" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,8 +302,11 @@
     <t>I will aim to control/contain the rolling average to under 6k/M</t>
   </si>
   <si>
+    <t>Tokyo hotel $2270</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Tokyo flight, </t>
+      <t xml:space="preserve">Tokyo flight $2680, </t>
     </r>
     <r>
       <rPr>
@@ -314,9 +317,6 @@
       </rPr>
       <t>lastWill</t>
     </r>
-  </si>
-  <si>
-    <t>Tokyo hotel $2270</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="B1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -959,7 +959,10 @@
     <row r="6" spans="2:11">
       <c r="B6" s="10"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <f>MROUND(AVERAGE(E6:E17),100)</f>
+        <v>5800</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1007,7 +1010,7 @@
         <v>45564</v>
       </c>
       <c r="D8" s="12">
-        <f>MROUND(AVERAGE(E8:E19),100)</f>
+        <f t="shared" ref="D7:D19" si="0">MROUND(AVERAGE(E8:E19),100)</f>
         <v>6100</v>
       </c>
       <c r="E8" s="13">
@@ -1027,7 +1030,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.75">
@@ -1039,7 +1042,7 @@
         <v>45533</v>
       </c>
       <c r="D9" s="12">
-        <f>MROUND(AVERAGE(E9:E20),100)</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="E9" s="17">
@@ -1065,7 +1068,7 @@
         <v>45503</v>
       </c>
       <c r="D10" s="12">
-        <f>MROUND(AVERAGE(E10:E21),100)</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="E10" s="19">
@@ -1084,14 +1087,14 @@
     </row>
     <row r="11" spans="2:11" ht="15.75">
       <c r="B11" s="10">
-        <f t="shared" ref="B11:B40" si="0">DATEDIF(C12,C11, "D")</f>
+        <f t="shared" ref="B11:B40" si="1">DATEDIF(C12,C11, "D")</f>
         <v>28</v>
       </c>
       <c r="C11" s="15">
         <v>45470</v>
       </c>
       <c r="D11" s="12">
-        <f>MROUND(AVERAGE(E11:E22),100)</f>
+        <f t="shared" si="0"/>
         <v>6100</v>
       </c>
       <c r="E11" s="13">
@@ -1117,7 +1120,7 @@
         <v>45442</v>
       </c>
       <c r="D12" s="12">
-        <f>MROUND(AVERAGE(E12:E23),100)</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="E12" s="18">
@@ -1139,19 +1142,19 @@
         <v>1400</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75">
       <c r="B13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C13" s="15">
         <v>45411</v>
       </c>
       <c r="D13" s="12">
-        <f>MROUND(AVERAGE(E13:E24),100)</f>
+        <f t="shared" si="0"/>
         <v>5800</v>
       </c>
       <c r="E13" s="13">
@@ -1173,7 +1176,7 @@
         <v>45378</v>
       </c>
       <c r="D14" s="12">
-        <f>MROUND(AVERAGE(E14:E25),100)</f>
+        <f t="shared" si="0"/>
         <v>5800</v>
       </c>
       <c r="E14" s="19">
@@ -1188,14 +1191,14 @@
     </row>
     <row r="15" spans="2:11" ht="15.75">
       <c r="B15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C15" s="15">
         <v>45350</v>
       </c>
       <c r="D15" s="12">
-        <f>MROUND(AVERAGE(E15:E26),100)</f>
+        <f t="shared" si="0"/>
         <v>5900</v>
       </c>
       <c r="E15" s="18">
@@ -1212,14 +1215,14 @@
     </row>
     <row r="16" spans="2:11" ht="15.75">
       <c r="B16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C16" s="15">
         <v>45321</v>
       </c>
       <c r="D16" s="12">
-        <f>MROUND(AVERAGE(E16:E27),100)</f>
+        <f t="shared" si="0"/>
         <v>5600</v>
       </c>
       <c r="E16" s="13">
@@ -1234,14 +1237,14 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C17" s="15">
         <v>45288</v>
       </c>
       <c r="D17" s="12">
-        <f>MROUND(AVERAGE(E17:E28),100)</f>
+        <f t="shared" si="0"/>
         <v>5600</v>
       </c>
       <c r="E17" s="13">
@@ -1258,14 +1261,14 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C18" s="15">
         <v>45259</v>
       </c>
       <c r="D18" s="12">
-        <f>MROUND(AVERAGE(E18:E29),100)</f>
+        <f t="shared" si="0"/>
         <v>5800</v>
       </c>
       <c r="E18" s="13">
@@ -1284,14 +1287,14 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C19" s="15">
         <v>45229</v>
       </c>
       <c r="D19" s="12">
-        <f>MROUND(AVERAGE(E19:E30),100)</f>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="E19" s="13">
@@ -1314,14 +1317,14 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C20" s="15">
         <v>45199</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" ref="D19:D31" si="1">AVERAGE(E20:E31)</f>
+        <f t="shared" ref="D20:D31" si="2">AVERAGE(E20:E31)</f>
         <v>5455</v>
       </c>
       <c r="E20" s="13">
@@ -1346,14 +1349,14 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C21" s="15">
         <v>45169</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5305.833333333333</v>
       </c>
       <c r="E21" s="20">
@@ -1376,14 +1379,14 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C22" s="15">
         <v>45138</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5243.333333333333</v>
       </c>
       <c r="E22" s="13">
@@ -1408,14 +1411,14 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C23" s="15">
         <v>45094</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4867.5</v>
       </c>
       <c r="E23" s="13">
@@ -1440,14 +1443,14 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C24" s="15">
         <v>45061</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5085.833333333333</v>
       </c>
       <c r="E24" s="18">
@@ -1472,14 +1475,14 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C25" s="15">
         <v>45031</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4632.5</v>
       </c>
       <c r="E25" s="13">
@@ -1504,14 +1507,14 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C26" s="15">
         <v>45000</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4582.5</v>
       </c>
       <c r="E26" s="13">
@@ -1534,14 +1537,14 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C27" s="15">
         <v>44972</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4645</v>
       </c>
       <c r="E27" s="13">
@@ -1564,14 +1567,14 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C28" s="15">
         <v>44942</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4423.333333333333</v>
       </c>
       <c r="E28" s="13">
@@ -1590,14 +1593,14 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C29" s="15">
         <v>44910</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4422.5</v>
       </c>
       <c r="E29" s="18">
@@ -1622,14 +1625,14 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C30" s="15">
         <v>44880</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4050.8333333333335</v>
       </c>
       <c r="E30" s="13">
@@ -1648,14 +1651,14 @@
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C31" s="15">
         <v>44851</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4035</v>
       </c>
       <c r="E31" s="13">
@@ -1674,14 +1677,14 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C32" s="15">
         <v>44819</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" ref="D32:D36" si="2">AVERAGE(E32:E43)</f>
+        <f t="shared" ref="D32:D36" si="3">AVERAGE(E32:E43)</f>
         <v>3970.8333333333335</v>
       </c>
       <c r="E32" s="13">
@@ -1698,14 +1701,14 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C33" s="15">
         <v>44788</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3935.8333333333335</v>
       </c>
       <c r="E33" s="20">
@@ -1720,7 +1723,7 @@
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C34" s="15">
@@ -1742,14 +1745,14 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C35" s="15">
         <v>44728</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4289.166666666667</v>
       </c>
       <c r="E35" s="18">
@@ -1768,14 +1771,14 @@
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C36" s="15">
         <v>44701</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3951.6666666666665</v>
       </c>
       <c r="E36" s="13">
@@ -1790,7 +1793,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C37" s="15">
@@ -1814,7 +1817,7 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C38" s="15">
@@ -1838,7 +1841,7 @@
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C39" s="15">
@@ -1860,7 +1863,7 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C40" s="15">

--- a/msff/xls/SgpMonthlyExp.xlsx
+++ b/msff/xls/SgpMonthlyExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5A7A4-DF73-4AF4-84AB-A6CD844A9C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC417BCC-8240-4872-AFD3-7FBFB353D6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
+    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" xr2:uid="{E23C00C7-DCBA-4229-B114-3BEC6116298E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>天</t>
   </si>
@@ -317,6 +317,9 @@
       </rPr>
       <t>lastWill</t>
     </r>
+  </si>
+  <si>
+    <t>$995 for JPY11,400 (under娱乐)</t>
   </si>
 </sst>
 </file>
@@ -394,12 +397,18 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -466,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -538,6 +547,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,7 +879,7 @@
   <dimension ref="B1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,12 +902,12 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="9"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -957,19 +969,36 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="10"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="10">
+        <f>DATEDIF(C7,C6, "D")</f>
+        <v>28</v>
+      </c>
+      <c r="C6" s="15">
+        <v>45626</v>
+      </c>
       <c r="D6" s="12">
         <f>MROUND(AVERAGE(E6:E17),100)</f>
-        <v>5800</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+        <v>5600</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3330</v>
+      </c>
+      <c r="F6" s="14">
+        <v>370</v>
+      </c>
+      <c r="G6" s="14">
+        <v>820</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1380</v>
+      </c>
+      <c r="I6" s="14">
+        <v>290</v>
+      </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="10">
@@ -1010,7 +1039,7 @@
         <v>45564</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" ref="D7:D19" si="0">MROUND(AVERAGE(E8:E19),100)</f>
+        <f t="shared" ref="D8:D19" si="0">MROUND(AVERAGE(E8:E19),100)</f>
         <v>6100</v>
       </c>
       <c r="E8" s="13">
@@ -1123,7 +1152,7 @@
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="27">
         <v>9140</v>
       </c>
       <c r="F12" s="14">
@@ -1201,7 +1230,7 @@
         <f t="shared" si="0"/>
         <v>5900</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="27">
         <v>8230</v>
       </c>
       <c r="F15" s="16"/>
@@ -2591,93 +2620,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
